--- a/main/static/experiment_description/Figure_10_Assay_Creation.xlsx
+++ b/main/static/experiment_description/Figure_10_Assay_Creation.xlsx
@@ -19,46 +19,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Line Name</t>
   </si>
   <si>
-    <t>Replicate Count</t>
-  </si>
-  <si>
     <t>Line Description</t>
   </si>
   <si>
     <t>Media</t>
   </si>
   <si>
-    <t>181-aceF</t>
-  </si>
-  <si>
-    <t>JBx_002078</t>
-  </si>
-  <si>
     <t>LB</t>
   </si>
   <si>
     <t>Part ID</t>
   </si>
   <si>
-    <t>Describe your line here</t>
-  </si>
-  <si>
     <t>Targeted Proteomics Time</t>
   </si>
   <si>
     <t>6h</t>
+  </si>
+  <si>
+    <t>JBx_042441</t>
+  </si>
+  <si>
+    <t>WT-Control</t>
+  </si>
+  <si>
+    <t>Wildtype s. cervisae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +87,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -114,7 +117,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -122,18 +125,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,59 +471,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
